--- a/data/trans_orig/P23_1_2016_2023_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R2-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>240870</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>215372</v>
+        <v>215500</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>264897</v>
+        <v>263971</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3196754235757465</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2858356916451354</v>
+        <v>0.2860060965104403</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3515639215146494</v>
+        <v>0.3503347367961252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -763,19 +763,19 @@
         <v>48673</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35347</v>
+        <v>35563</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63513</v>
+        <v>65259</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04905226874612548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03562209962044103</v>
+        <v>0.03584046745417304</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06400823434520329</v>
+        <v>0.06576801859127544</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>298</v>
@@ -784,19 +784,19 @@
         <v>289543</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>258511</v>
+        <v>260878</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>320713</v>
+        <v>323455</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1658559149562174</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1480805302810278</v>
+        <v>0.1494363849081278</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1837108788032824</v>
+        <v>0.185281480257506</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>512612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488585</v>
+        <v>489511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>538110</v>
+        <v>537982</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6803245764242535</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6484360784853505</v>
+        <v>0.6496652632038747</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7141643083548646</v>
+        <v>0.7139939034895592</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>844</v>
@@ -834,19 +834,19 @@
         <v>943593</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>928753</v>
+        <v>927007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>956919</v>
+        <v>956703</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9509477312538746</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9359917656547966</v>
+        <v>0.9342319814087245</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9643779003795588</v>
+        <v>0.9641595325458269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1353</v>
@@ -855,19 +855,19 @@
         <v>1456205</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1425035</v>
+        <v>1422293</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1487237</v>
+        <v>1484870</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8341440850437826</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8162891211967177</v>
+        <v>0.8147185197424941</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8519194697189725</v>
+        <v>0.8505636150918726</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>357037</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>321429</v>
+        <v>321957</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>391896</v>
+        <v>393040</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1719514808791633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1548021147756254</v>
+        <v>0.1550564897224343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1887394471124061</v>
+        <v>0.1892902906893175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>219</v>
@@ -980,19 +980,19 @@
         <v>232105</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>206122</v>
+        <v>202548</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>264300</v>
+        <v>262863</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1168598849900372</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1037778172033894</v>
+        <v>0.1019783493906942</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1330693325017355</v>
+        <v>0.1323457343222164</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>554</v>
@@ -1001,19 +1001,19 @@
         <v>589143</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>543213</v>
+        <v>546470</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>630249</v>
+        <v>640620</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1450172825356779</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1337117696695412</v>
+        <v>0.1345135444821016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1551356051654509</v>
+        <v>0.1576884501980387</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1719348</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1684489</v>
+        <v>1683345</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1754956</v>
+        <v>1754428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8280485191208368</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.811260552887594</v>
+        <v>0.8107097093106825</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8451978852243752</v>
+        <v>0.8449435102775658</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1687</v>
@@ -1051,19 +1051,19 @@
         <v>1754079</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1721884</v>
+        <v>1723321</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1780062</v>
+        <v>1783636</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8831401150099628</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8669306674982642</v>
+        <v>0.8676542656777836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8962221827966105</v>
+        <v>0.8980216506093056</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3304</v>
@@ -1072,19 +1072,19 @@
         <v>3473425</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3432319</v>
+        <v>3421948</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3519355</v>
+        <v>3516098</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8549827174643221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8448643948345491</v>
+        <v>0.8423115498019615</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8662882303304588</v>
+        <v>0.8654864555178986</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>101350</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82977</v>
+        <v>82487</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122039</v>
+        <v>122042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1856850656577103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1520240227516661</v>
+        <v>0.1511268411275891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.223591585398487</v>
+        <v>0.2235967184934348</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -1197,19 +1197,19 @@
         <v>104362</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87458</v>
+        <v>86249</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>124494</v>
+        <v>124634</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1903684797263603</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1595329296855944</v>
+        <v>0.157327320730741</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2270909960369442</v>
+        <v>0.2273463796782565</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>188</v>
@@ -1218,19 +1218,19 @@
         <v>205712</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>181198</v>
+        <v>179716</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>236268</v>
+        <v>234061</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1880319063586191</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1656244862855928</v>
+        <v>0.1642704097927226</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2159620769285711</v>
+        <v>0.213944517818678</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>444464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>423775</v>
+        <v>423772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>462837</v>
+        <v>463327</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8143149343422897</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.776408414601513</v>
+        <v>0.7764032815065651</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.847975977248334</v>
+        <v>0.8488731588724109</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>427</v>
@@ -1268,19 +1268,19 @@
         <v>443851</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>423719</v>
+        <v>423579</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>460755</v>
+        <v>461964</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8096315202736397</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7729090039630556</v>
+        <v>0.7726536203217435</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8404670703144052</v>
+        <v>0.8426726792692587</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>837</v>
@@ -1289,19 +1289,19 @@
         <v>888315</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>857759</v>
+        <v>859966</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>912829</v>
+        <v>914311</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8119680936413809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7840379230714291</v>
+        <v>0.7860554821813219</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8343755137144074</v>
+        <v>0.8357295902072773</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>699257</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>651302</v>
+        <v>651646</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>749782</v>
+        <v>747678</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2071453637806265</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1929393247530498</v>
+        <v>0.1930412286009688</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2221127962581367</v>
+        <v>0.221489513189711</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>363</v>
@@ -1414,19 +1414,19 @@
         <v>385140</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>349619</v>
+        <v>345423</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>428075</v>
+        <v>421348</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1092082246873889</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09913589514062984</v>
+        <v>0.09794626446716953</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.121382571091102</v>
+        <v>0.1194751370251938</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1040</v>
@@ -1435,19 +1435,19 @@
         <v>1084397</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1021826</v>
+        <v>1020196</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1141317</v>
+        <v>1144199</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1571056638606146</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1480403832813421</v>
+        <v>0.1478043712383265</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1653521604615193</v>
+        <v>0.1657696097102806</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>2676424</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2625899</v>
+        <v>2628003</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2724379</v>
+        <v>2724035</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7928546362193736</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7778872037418629</v>
+        <v>0.7785104868102889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.80706067524695</v>
+        <v>0.8069587713990312</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2958</v>
@@ -1485,19 +1485,19 @@
         <v>3141522</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3098587</v>
+        <v>3105314</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3177043</v>
+        <v>3181239</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.890791775312611</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.878617428908898</v>
+        <v>0.8805248629748063</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9008641048593702</v>
+        <v>0.9020537355328305</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5494</v>
@@ -1506,19 +1506,19 @@
         <v>5817946</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5761026</v>
+        <v>5758144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5880517</v>
+        <v>5882147</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8428943361393855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8346478395384808</v>
+        <v>0.8342303902897195</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8519596167186579</v>
+        <v>0.8521956287616735</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>177221</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>157800</v>
+        <v>156399</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>196785</v>
+        <v>198111</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3063302448349439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.272761352555575</v>
+        <v>0.2703393613683205</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3401463737589149</v>
+        <v>0.3424383371182965</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -1870,19 +1870,19 @@
         <v>47704</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37519</v>
+        <v>38211</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60100</v>
+        <v>60998</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05803179055559424</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04564145196015874</v>
+        <v>0.04648301620819962</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07311057321418682</v>
+        <v>0.07420357265994229</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>310</v>
@@ -1891,19 +1891,19 @@
         <v>224925</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>203326</v>
+        <v>200166</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>248420</v>
+        <v>250518</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1605959168499321</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1451737106373851</v>
+        <v>0.1429180459191234</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1773711810484316</v>
+        <v>0.1788688737002833</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>401308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>381744</v>
+        <v>380418</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>420729</v>
+        <v>422130</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6936697551650562</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6598536262410851</v>
+        <v>0.6575616628817034</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7272386474444251</v>
+        <v>0.7296606386316794</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1352</v>
@@ -1941,19 +1941,19 @@
         <v>774334</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>761938</v>
+        <v>761040</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>784519</v>
+        <v>783827</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9419682094444056</v>
+        <v>0.9419682094444058</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9268894267858131</v>
+        <v>0.9257964273400578</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9543585480398414</v>
+        <v>0.9535169837918003</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1808</v>
@@ -1962,19 +1962,19 @@
         <v>1175642</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1152147</v>
+        <v>1150049</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1197241</v>
+        <v>1200401</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8394040831500681</v>
+        <v>0.8394040831500679</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8226288189515684</v>
+        <v>0.8211311262997163</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8548262893626148</v>
+        <v>0.8570819540808764</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>333396</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>297532</v>
+        <v>299845</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>368354</v>
+        <v>369149</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1496158970874659</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1335217792920857</v>
+        <v>0.1345595264856962</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1653041252645396</v>
+        <v>0.1656608369897881</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>309</v>
@@ -2087,19 +2087,19 @@
         <v>222123</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>199515</v>
+        <v>195395</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>246761</v>
+        <v>246706</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1023616460453456</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09194326666865531</v>
+        <v>0.09004438765062989</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1137157793850619</v>
+        <v>0.1136900884291156</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>669</v>
@@ -2108,19 +2108,19 @@
         <v>555519</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>516247</v>
+        <v>514475</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>596230</v>
+        <v>599040</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1263022663391449</v>
+        <v>0.1263022663391448</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1173734830716485</v>
+        <v>0.1169706142986151</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1355583104639325</v>
+        <v>0.1361971312515527</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>1894947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1859989</v>
+        <v>1859194</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1930811</v>
+        <v>1928498</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.850384102912534</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8346958747354606</v>
+        <v>0.8343391630102119</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8664782207079141</v>
+        <v>0.8654404735143038</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2610</v>
@@ -2158,19 +2158,19 @@
         <v>1947861</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1923223</v>
+        <v>1923278</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1970469</v>
+        <v>1974589</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8976383539546543</v>
+        <v>0.8976383539546544</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8862842206149381</v>
+        <v>0.8863099115708845</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9080567333313448</v>
+        <v>0.9099556123493698</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4240</v>
@@ -2179,19 +2179,19 @@
         <v>3842808</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3802097</v>
+        <v>3799287</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3882080</v>
+        <v>3883852</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8736977336608551</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8644416895360674</v>
+        <v>0.8638028687484473</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8826265169283514</v>
+        <v>0.883029385701385</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>149869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>128248</v>
+        <v>128454</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172787</v>
+        <v>175798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2106118908685005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1802286693018677</v>
+        <v>0.1805180108871551</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2428190715284501</v>
+        <v>0.2470502147762926</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>140</v>
@@ -2304,19 +2304,19 @@
         <v>95589</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79856</v>
+        <v>80391</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111587</v>
+        <v>110987</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1305126554101829</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1090307047984934</v>
+        <v>0.1097614842862299</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1523554846865758</v>
+        <v>0.1515360208740199</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>304</v>
@@ -2325,19 +2325,19 @@
         <v>245458</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>220453</v>
+        <v>220778</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>276050</v>
+        <v>273156</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1699846453730831</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1526680810430189</v>
+        <v>0.1528931992186701</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1911699763798279</v>
+        <v>0.1891662014493981</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>561718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538800</v>
+        <v>535789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>583339</v>
+        <v>583133</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7893881091314996</v>
+        <v>0.7893881091314995</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7571809284715495</v>
+        <v>0.7529497852237076</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8197713306981319</v>
+        <v>0.8194819891128451</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>863</v>
@@ -2375,19 +2375,19 @@
         <v>636825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>620827</v>
+        <v>621427</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>652558</v>
+        <v>652023</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.869487344589817</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8476445153134242</v>
+        <v>0.8484639791259803</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8909692952015068</v>
+        <v>0.8902385157137701</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1380</v>
@@ -2396,19 +2396,19 @@
         <v>1198543</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1167951</v>
+        <v>1170845</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1223548</v>
+        <v>1223223</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8300153546269168</v>
+        <v>0.830015354626917</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8088300236201724</v>
+        <v>0.8108337985506017</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8473319189569812</v>
+        <v>0.8471068007813297</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>660485</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>612882</v>
+        <v>611843</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>704856</v>
+        <v>704472</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1877200234911138</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1741905727987169</v>
+        <v>0.1738952057791189</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2003309261191627</v>
+        <v>0.2002216073431826</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>524</v>
@@ -2521,19 +2521,19 @@
         <v>365417</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>336068</v>
+        <v>336297</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>400218</v>
+        <v>398558</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09811331401675494</v>
+        <v>0.09811331401675495</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09023337443500365</v>
+        <v>0.09029478285336535</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1074574517766744</v>
+        <v>0.1070117830201517</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1283</v>
@@ -2542,19 +2542,19 @@
         <v>1025902</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>969512</v>
+        <v>974647</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1085378</v>
+        <v>1086744</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1416425344243218</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1338570110360959</v>
+        <v>0.1345659503261752</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.149854196189578</v>
+        <v>0.150042758535453</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>2857974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2813603</v>
+        <v>2813987</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2905577</v>
+        <v>2906616</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8122799765088859</v>
+        <v>0.8122799765088862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7996690738808372</v>
+        <v>0.7997783926568173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.825809427201283</v>
+        <v>0.826104794220881</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4825</v>
@@ -2592,19 +2592,19 @@
         <v>3359018</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3324217</v>
+        <v>3325877</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3388367</v>
+        <v>3388138</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.901886685983245</v>
+        <v>0.9018866859832451</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8925425482233256</v>
+        <v>0.8929882169798484</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9097666255649962</v>
+        <v>0.9097052171466345</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7428</v>
@@ -2613,19 +2613,19 @@
         <v>6216993</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6157517</v>
+        <v>6156151</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6273383</v>
+        <v>6268248</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8583574655756783</v>
+        <v>0.8583574655756784</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8501458038104224</v>
+        <v>0.8499572414645471</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8661429889639042</v>
+        <v>0.8654340496738248</v>
       </c>
     </row>
     <row r="15">
